--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22830" windowHeight="9495" tabRatio="809"/>
+    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -238,12 +238,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -564,7 +582,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,16 +606,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -606,95 +624,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1025,87 +1064,98 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>20</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>##column#var</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>相机最远距离</t>
+  </si>
+  <si>
+    <t>CreateRoleMaxLimit</t>
+  </si>
+  <si>
+    <t>创角数量限制</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
@@ -1159,6 +1165,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##column#var</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>创角数量限制</t>
+  </si>
+  <si>
+    <t>ResetTalentCurrency</t>
+  </si>
+  <si>
+    <t>重置天赋货币</t>
+  </si>
+  <si>
+    <t>ResetTalentCurrencyValue</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>重置天赋货币值</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
@@ -1179,6 +1194,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##column#var</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>重置天赋货币值</t>
+  </si>
+  <si>
+    <t>ExtendBagItemConfig</t>
+  </si>
+  <si>
+    <t>背包扩容道具id</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1222,6 +1228,20 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>60006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>##column#var</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>背包扩容道具id</t>
+  </si>
+  <si>
+    <t>TeamMemberLimit</t>
+  </si>
+  <si>
+    <t>小队队员最大数量</t>
   </si>
 </sst>
 </file>
@@ -1088,17 +1094,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1242,6 +1248,20 @@
         <v>60006</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
+    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -118,13 +118,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -609,163 +615,175 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,53 +1115,54 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4">
@@ -1151,13 +1170,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4">
@@ -1165,41 +1184,41 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4">
@@ -1207,13 +1226,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4">
@@ -1221,13 +1240,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4">
@@ -1235,13 +1254,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4">
@@ -1249,13 +1268,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="4">

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>##column#var</t>
   </si>
@@ -44,12 +44,18 @@
     <t>具体参数</t>
   </si>
   <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
     <t>BagCapacity</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>背包初始容量</t>
   </si>
   <si>
@@ -105,6 +111,15 @@
   </si>
   <si>
     <t>小队队员最大数量</t>
+  </si>
+  <si>
+    <t>NewDayTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>每日刷新时间</t>
   </si>
 </sst>
 </file>
@@ -746,7 +761,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +799,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,18 +1130,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
+    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1155,7 +1173,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customFormat="1" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1180,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1188,27 +1206,27 @@
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12">
-        <v>5</v>
+      <c r="D6" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1216,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
-        <v>5</v>
+      <c r="D8" s="12">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1236,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1244,27 +1262,27 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="4">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>60006</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1278,7 +1296,35 @@
         <v>25</v>
       </c>
       <c r="D12" s="4">
+        <v>60006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.208333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>##column#var</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>背包扩容道具id</t>
+  </si>
+  <si>
+    <t>ExtendBagCapacity</t>
+  </si>
+  <si>
+    <t>背包扩展个数</t>
   </si>
   <si>
     <t>TeamMemberLimit</t>
@@ -1130,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1310,20 +1316,34 @@
         <v>27</v>
       </c>
       <c r="D13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13">
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.208333333333333</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>##column#var</t>
   </si>
@@ -117,15 +117,6 @@
   </si>
   <si>
     <t>小队队员最大数量</t>
-  </si>
-  <si>
-    <t>NewDayTime</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>每日刷新时间</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1130,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1333,19 +1324,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.208333333333333</v>
-      </c>
+    <row r="15" spans="4:4">
+      <c r="D15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalDataConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
+    <workbookView windowWidth="26310" windowHeight="11655" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalProto" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>##column#var</t>
   </si>
@@ -117,18 +117,50 @@
   </si>
   <si>
     <t>小队队员最大数量</t>
+  </si>
+  <si>
+    <t>DungeonConsumeMax</t>
+  </si>
+  <si>
+    <t>体力上限</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DungeonConsumeRecoverInterval</t>
+  </si>
+  <si>
+    <t>体力恢复间隔</t>
+  </si>
+  <si>
+    <t>DungeonConsumeRecoverValue</t>
+  </si>
+  <si>
+    <t>体力恢复值</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BattleTotalProgress</t>
+  </si>
+  <si>
+    <t>战斗条最大长度</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -758,7 +790,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,31 +806,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,205 +1156,259 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>60006</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="13"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <f>6*60*1000</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
